--- a/Presentation Tables.xlsx
+++ b/Presentation Tables.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data_science\CA_Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crsalviati/Desktop/data_science/CA_Housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="-40" yWindow="1920" windowWidth="25600" windowHeight="13120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Income Dist Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Income Dist Data" sheetId="5" r:id="rId2"/>
     <sheet name="LinReg Results" sheetId="3" r:id="rId3"/>
-    <sheet name="Lasso Results" sheetId="4" r:id="rId4"/>
+    <sheet name="Decision Tree Results" sheetId="6" r:id="rId4"/>
+    <sheet name="Lasso Results" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>drop alc_on: strong positive correlation with nocar</t>
   </si>
@@ -129,23 +133,40 @@
   </si>
   <si>
     <t>Freq_2</t>
+  </si>
+  <si>
+    <t>*Thousands</t>
+  </si>
+  <si>
+    <t>*0.01</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>poverty_all</t>
+  </si>
+  <si>
+    <t>livewage_s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,27 +179,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,12 +262,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -273,52 +339,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,10 +472,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4368908574615833E-2"/>
-          <c:y val="2.2207696166923026E-2"/>
-          <c:w val="0.92802887718486671"/>
-          <c:h val="0.95558460766615394"/>
+          <c:x val="0.0443689085746158"/>
+          <c:y val="0.022207696166923"/>
+          <c:w val="0.928028877184867"/>
+          <c:h val="0.821607587457825"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -386,52 +503,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,52 +560,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>675</c:v>
+                  <c:v>675.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>675</c:v>
+                  <c:v>675.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,52 +634,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,52 +691,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,14 +751,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381269712"/>
-        <c:axId val="381270256"/>
+        <c:axId val="803163824"/>
+        <c:axId val="803182992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381269712"/>
+        <c:axId val="803163824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="130"/>
+          <c:max val="130.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -659,6 +776,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Futura Medium" charset="0"/>
+                    <a:ea typeface="Futura Medium" charset="0"/>
+                    <a:cs typeface="Futura Medium" charset="0"/>
+                  </a:rPr>
+                  <a:t>Income </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Futura Medium" charset="0"/>
+                  <a:ea typeface="Futura Medium" charset="0"/>
+                  <a:cs typeface="Futura Medium" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -688,24 +874,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Futura Medium" charset="0"/>
+                <a:ea typeface="Futura Medium" charset="0"/>
+                <a:cs typeface="Futura Medium" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381270256"/>
+        <c:crossAx val="803182992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381270256"/>
+        <c:axId val="803182992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
@@ -727,7 +913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381269712"/>
+        <c:crossAx val="803163824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1329,7 +1515,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1340,7 +1526,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8678333" cy="6287745"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1367,12 +1553,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.39684</cdr:x>
-      <cdr:y>0.00061</cdr:y>
+      <cdr:x>0.38594</cdr:x>
+      <cdr:y>0.02178</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.39684</cdr:x>
-      <cdr:y>0.93682</cdr:y>
+      <cdr:x>0.38967</cdr:x>
+      <cdr:y>0.84158</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1380,9 +1566,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3439963" y="3837"/>
-          <a:ext cx="1" cy="5889328"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3349314" y="136961"/>
+          <a:ext cx="32342" cy="5154706"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -1412,12 +1598,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.45296</cdr:x>
-      <cdr:y>0.03159</cdr:y>
+      <cdr:x>0.07706</cdr:x>
+      <cdr:y>0.03357</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70672</cdr:x>
-      <cdr:y>0.10566</cdr:y>
+      <cdr:x>0.33286</cdr:x>
+      <cdr:y>0.11287</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1426,15 +1612,16 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3926493" y="198724"/>
-          <a:ext cx="2199658" cy="465971"/>
+          <a:off x="668783" y="211081"/>
+          <a:ext cx="2219846" cy="498625"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1453,8 +1640,11 @@
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
+              <a:latin typeface="Futura Medium" charset="0"/>
+              <a:ea typeface="Futura Medium" charset="0"/>
+              <a:cs typeface="Futura Medium" charset="0"/>
             </a:rPr>
-            <a:t>Median = $50K</a:t>
+            <a:t>Same Median</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -1462,12 +1652,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.41423</cdr:x>
-      <cdr:y>0.06972</cdr:y>
+      <cdr:x>0.33142</cdr:x>
+      <cdr:y>0.07327</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.45296</cdr:x>
-      <cdr:y>0.06972</cdr:y>
+      <cdr:x>0.37836</cdr:x>
+      <cdr:y>0.07368</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1475,9 +1665,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="3590720" y="438562"/>
-          <a:ext cx="335773" cy="0"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2876176" y="460686"/>
+          <a:ext cx="407375" cy="2598"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -1505,184 +1695,144 @@
       </cdr:style>
     </cdr:cxnSp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69882</cdr:x>
+      <cdr:y>0.01996</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95839</cdr:x>
+      <cdr:y>0.19406</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6064623" y="125506"/>
+          <a:ext cx="2252631" cy="1094690"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Futura Medium" charset="0"/>
+              <a:ea typeface="Futura Medium" charset="0"/>
+              <a:cs typeface="Futura Medium" charset="0"/>
+            </a:rPr>
+            <a:t>Example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Futura Medium" charset="0"/>
+              <a:ea typeface="Futura Medium" charset="0"/>
+              <a:cs typeface="Futura Medium" charset="0"/>
+            </a:rPr>
+            <a:t> - Not Actual Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Futura Medium" charset="0"/>
+            <a:ea typeface="Futura Medium" charset="0"/>
+            <a:cs typeface="Futura Medium" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Chart1"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="M2" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3">
-            <v>5</v>
-          </cell>
-          <cell r="M3">
-            <v>0</v>
-          </cell>
-          <cell r="N3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>15</v>
-          </cell>
-          <cell r="M4">
-            <v>3</v>
-          </cell>
-          <cell r="N4">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>25</v>
-          </cell>
-          <cell r="M5">
-            <v>51</v>
-          </cell>
-          <cell r="N5">
-            <v>250</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>35</v>
-          </cell>
-          <cell r="M6">
-            <v>264</v>
-          </cell>
-          <cell r="N6">
-            <v>325</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>45</v>
-          </cell>
-          <cell r="M7">
-            <v>681</v>
-          </cell>
-          <cell r="N7">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>55</v>
-          </cell>
-          <cell r="M8">
-            <v>681</v>
-          </cell>
-          <cell r="N8">
-            <v>250</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>65</v>
-          </cell>
-          <cell r="M9">
-            <v>264</v>
-          </cell>
-          <cell r="N9">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>75</v>
-          </cell>
-          <cell r="M10">
-            <v>51</v>
-          </cell>
-          <cell r="N10">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>85</v>
-          </cell>
-          <cell r="M11">
-            <v>3</v>
-          </cell>
-          <cell r="N11">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12">
-            <v>95</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
-          </cell>
-          <cell r="N12">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>105</v>
-          </cell>
-          <cell r="M13">
-            <v>0</v>
-          </cell>
-          <cell r="N13">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>115</v>
-          </cell>
-          <cell r="M14">
-            <v>0</v>
-          </cell>
-          <cell r="N14">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15">
-            <v>125</v>
-          </cell>
-          <cell r="M15">
-            <v>0</v>
-          </cell>
-          <cell r="N15">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>135</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>35</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1731,9 +1881,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1766,9 +1916,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1954,9 +2104,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +2117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1978,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1989,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+10</f>
         <v>15</v>
@@ -2001,7 +2151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A17" si="0">A4+10</f>
         <v>25</v>
@@ -2013,7 +2163,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2025,7 +2175,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2037,7 +2187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2049,7 +2199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2064,7 +2214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2076,7 +2226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -2088,7 +2238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -2100,7 +2250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -2112,7 +2262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -2124,7 +2274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -2136,7 +2286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -2148,7 +2298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -2167,64 +2317,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E16" sqref="A11:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="5" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>2.6559999999999999E-3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3.02</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>7.7600000000000004E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20">
+        <v>-1.59</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="23">
+        <v>6.16</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="20">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0.193</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,249 +2574,722 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="30.33203125" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="18"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.43237399999999998</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.356018</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.204707</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.354962</v>
+      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.13769799999999999</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="30">
+        <v>9.0558E-2</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33">
+        <v>8.8913000000000006E-2</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="33">
+        <v>8.8942999999999994E-2</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4.8987999999999997E-2</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="30">
+        <v>6.7361000000000004E-2</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4.7183999999999997E-2</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2.5217E-2</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4.0136999999999999E-2</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1.6941000000000001E-2</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.40285799999999999</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.35272999999999999</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.233601</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.31675199999999998</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.108239</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="30">
+        <v>8.9314000000000004E-2</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="33">
+        <v>7.6037999999999994E-2</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="33">
+        <v>7.9005000000000006E-2</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="30">
+        <v>6.0925E-2</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="30">
+        <v>6.3566999999999999E-2</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="33">
+        <v>5.4810999999999999E-2</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="33">
+        <v>3.3942E-2</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="30">
+        <v>4.4450000000000003E-2</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1.7568E-2</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1.9078000000000001E-2</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1.4482E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1.1279000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1.0109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="33">
+        <v>4.5180000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="30">
+        <v>2.6670000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="33">
+        <v>2.1329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1.933E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="33">
+        <v>0</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="B32" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="4" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>0.17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>0.21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>-0.08</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="14" t="s">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.13</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>0.11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>-0.03</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
